--- a/examples/XlsxPeasant_07_multiSheets.xlsx
+++ b/examples/XlsxPeasant_07_multiSheets.xlsx
@@ -1,44 +1,31 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>Arkusze</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>3</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="3" baseType="lpstr">
-      <vt:lpstr>Sheet1 Test</vt:lpstr>
-      <vt:lpstr>Sheet2 Test</vt:lpstr>
-      <vt:lpstr>Sheet3 Test</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <Company/>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>16.0300</AppVersion>
-</Properties>
-</file>
-
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>Karol Nowakowski</dc:creator>
-  <cp:lastModifiedBy>Karol Nowakowski</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2019-04-23T10:00:38Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2019-04-23T10:00:47Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1 Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2 Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3 Test" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>This is contents of Sheet1.</t>
@@ -52,8 +39,11 @@
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;" numFmtId="5"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,7 +101,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
@@ -406,35 +396,8 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knowakowski\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A31A1446-E08E-47BC-8584-29124A2247F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1 Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2 Test" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3 Test" sheetId="3" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AADB6BC7-5B5D-42A6-9BDF-FF058E950FBB}">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFDEBA7-0499-4EB9-BDE4-D8AAD661822F}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -451,8 +414,8 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458C5202-A4F6-4E5C-B775-26FC5AD5C17E}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B885D04B-A8AE-41DE-BE66-A303DA443AF7}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -469,8 +432,8 @@
 </worksheet>
 </file>
 
-<file path=xl\worksheets\sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BCFD12-5368-4098-95C6-DC083D53C61E}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359D616-7579-440B-B333-63107ABF317A}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_07_multiSheets.xlsx
+++ b/examples/XlsxPeasant_07_multiSheets.xlsx
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFDEBA7-0499-4EB9-BDE4-D8AAD661822F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B41A96A-8200-4A39-8701-10F9463405A0}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B885D04B-A8AE-41DE-BE66-A303DA443AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55516968-70EF-4CB6-B9F4-A573F23CA07F}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359D616-7579-440B-B333-63107ABF317A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9256D26E-4C49-4967-BA63-C8E5300F03E1}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_07_multiSheets.xlsx
+++ b/examples/XlsxPeasant_07_multiSheets.xlsx
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B41A96A-8200-4A39-8701-10F9463405A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD2D6D8-EEE5-4F23-95D8-823555D01404}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55516968-70EF-4CB6-B9F4-A573F23CA07F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FBCD92-B290-49A7-ACBE-3F100A66C784}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9256D26E-4C49-4967-BA63-C8E5300F03E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6837C0F-214A-43BA-B494-3D8AE58B9EFA}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_07_multiSheets.xlsx
+++ b/examples/XlsxPeasant_07_multiSheets.xlsx
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD2D6D8-EEE5-4F23-95D8-823555D01404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24823C30-93F4-4987-A317-A58B074D2750}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FBCD92-B290-49A7-ACBE-3F100A66C784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EB1CE7-7C05-49DF-B517-705F6D29C91E}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6837C0F-214A-43BA-B494-3D8AE58B9EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC05D62-932E-4919-8B9A-1D9B11AEEF3E}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_07_multiSheets.xlsx
+++ b/examples/XlsxPeasant_07_multiSheets.xlsx
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24823C30-93F4-4987-A317-A58B074D2750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E164ADFC-283B-4A82-8F9D-BE7033DB2916}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EB1CE7-7C05-49DF-B517-705F6D29C91E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECF22B6-E460-4D7E-A552-2521C796BB79}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC05D62-932E-4919-8B9A-1D9B11AEEF3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D6F853-FBFC-46C2-A7D0-ADC83F83C917}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_07_multiSheets.xlsx
+++ b/examples/XlsxPeasant_07_multiSheets.xlsx
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E164ADFC-283B-4A82-8F9D-BE7033DB2916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B19A25-37E1-425C-A697-D9CB73FB608E}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECF22B6-E460-4D7E-A552-2521C796BB79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AA9E6D-96F5-4AEF-85FD-7109348D10B4}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D6F853-FBFC-46C2-A7D0-ADC83F83C917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87596DD-C4FC-41B5-8132-327A3BB3460B}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_07_multiSheets.xlsx
+++ b/examples/XlsxPeasant_07_multiSheets.xlsx
@@ -397,7 +397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B19A25-37E1-425C-A697-D9CB73FB608E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6B7053-3B0E-4F33-8074-B346CA8E4D11}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AA9E6D-96F5-4AEF-85FD-7109348D10B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A03E18-0C16-4731-8EEF-430FB5B503B7}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87596DD-C4FC-41B5-8132-327A3BB3460B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741DEB70-528F-4491-80EF-0F5F42B4D214}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
